--- a/狀態改變圖.xlsx
+++ b/狀態改變圖.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25416" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表3" sheetId="3" r:id="rId2"/>
     <sheet name="工作表2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,136 +23,140 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
+    <t>2.1 因資料不足，故地圖資料無法完整呈現</t>
+  </si>
+  <si>
+    <t>4. 以某電商平均處理量300/S需七台伺服器，估計約需一台伺服器即可處理</t>
+  </si>
+  <si>
+    <t>381043734;89227622</t>
+  </si>
+  <si>
+    <t>frm_to</t>
+  </si>
+  <si>
+    <t>cntr</t>
+  </si>
+  <si>
+    <t>diff_time</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>percent_cntr</t>
+  </si>
+  <si>
+    <t>(Y, I)</t>
+  </si>
+  <si>
+    <t>(A, Z)</t>
+  </si>
+  <si>
+    <t>(Z, Y)</t>
+  </si>
+  <si>
+    <t>(Y, H)</t>
+  </si>
+  <si>
+    <t>(Z, Z)</t>
+  </si>
+  <si>
+    <t>(H, Y)</t>
+  </si>
+  <si>
+    <t>(Z, G)</t>
+  </si>
+  <si>
+    <t>(H, Z)</t>
+  </si>
+  <si>
+    <t>(G, I)</t>
+  </si>
+  <si>
+    <t>(T, Z)</t>
+  </si>
+  <si>
+    <t>(P, Y)</t>
+  </si>
+  <si>
+    <t>(Y, G)</t>
+  </si>
+  <si>
+    <t>(X, H)</t>
+  </si>
+  <si>
+    <t>(A, V)</t>
+  </si>
+  <si>
+    <t>(A, Y)</t>
+  </si>
+  <si>
+    <t>(I, I)</t>
+  </si>
+  <si>
+    <t>(Z, I)</t>
+  </si>
+  <si>
+    <t>(Z, P)</t>
+  </si>
+  <si>
+    <t>(H, X)</t>
+  </si>
+  <si>
+    <t>(Y, Y)</t>
+  </si>
+  <si>
+    <t>(H, P)</t>
+  </si>
+  <si>
+    <t>(G, Y)</t>
+  </si>
+  <si>
+    <t>(V, A)</t>
+  </si>
+  <si>
+    <t>(A, A)</t>
+  </si>
+  <si>
+    <t>(I, V)</t>
+  </si>
+  <si>
+    <t>(V, Z)</t>
+  </si>
+  <si>
+    <t>(P, Z)</t>
+  </si>
+  <si>
+    <t>(V, X)</t>
+  </si>
+  <si>
+    <t>(I, Z)</t>
+  </si>
+  <si>
+    <t>(A, P)</t>
+  </si>
+  <si>
     <t>1. 研究META DATA，研究方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2. 載小量資料研究資料型態，並操作資料，製作為網路圖並由地圖呈現</t>
-  </si>
-  <si>
-    <t>2.1 因資料不足，故地圖資料無法完整呈現</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2.2 使用 force-directed grpah 呈現郵件狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2. 由研究方向來看(估計送達時間的網路服務基於郵件狀態改變及其改變的時間)，目前平均資料處理量為49/S</t>
-  </si>
-  <si>
-    <t>4. 以某電商平均處理量300/S需七台伺服器，估計約需一台伺服器即可處理</t>
-  </si>
-  <si>
-    <t>381043734;89227622</t>
-  </si>
-  <si>
-    <t>frm_to</t>
-  </si>
-  <si>
-    <t>cntr</t>
-  </si>
-  <si>
-    <t>diff_time</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>percent_cntr</t>
-  </si>
-  <si>
-    <t>(Y, I)</t>
-  </si>
-  <si>
-    <t>(A, Z)</t>
-  </si>
-  <si>
-    <t>(Z, Y)</t>
-  </si>
-  <si>
-    <t>(Y, H)</t>
-  </si>
-  <si>
-    <t>(Z, Z)</t>
-  </si>
-  <si>
-    <t>(H, Y)</t>
-  </si>
-  <si>
-    <t>(Z, G)</t>
-  </si>
-  <si>
-    <t>(H, Z)</t>
-  </si>
-  <si>
-    <t>(G, I)</t>
-  </si>
-  <si>
-    <t>(T, Z)</t>
-  </si>
-  <si>
-    <t>(P, Y)</t>
-  </si>
-  <si>
-    <t>(Y, G)</t>
-  </si>
-  <si>
-    <t>(X, H)</t>
-  </si>
-  <si>
-    <t>(A, V)</t>
-  </si>
-  <si>
-    <t>(A, Y)</t>
-  </si>
-  <si>
-    <t>(I, I)</t>
-  </si>
-  <si>
-    <t>(Z, I)</t>
-  </si>
-  <si>
-    <t>(Z, P)</t>
-  </si>
-  <si>
-    <t>(H, X)</t>
-  </si>
-  <si>
-    <t>(Y, Y)</t>
-  </si>
-  <si>
-    <t>(H, P)</t>
-  </si>
-  <si>
-    <t>(G, Y)</t>
-  </si>
-  <si>
-    <t>(V, A)</t>
-  </si>
-  <si>
-    <t>(A, A)</t>
-  </si>
-  <si>
-    <t>(I, V)</t>
-  </si>
-  <si>
-    <t>(V, Z)</t>
-  </si>
-  <si>
-    <t>(P, Z)</t>
-  </si>
-  <si>
-    <t>(V, X)</t>
-  </si>
-  <si>
-    <t>(I, Z)</t>
-  </si>
-  <si>
-    <t>(A, P)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1967,7 +1966,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1981,7 +1980,7 @@
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1997,32 +1996,32 @@
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>110</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5">
         <v>2267546</v>
@@ -2041,12 +2040,12 @@
         <v>40.636617000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8">
         <v>1177466</v>
@@ -2065,12 +2064,12 @@
         <v>61.737946000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>128</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5">
         <v>925612</v>
@@ -2089,12 +2088,12 @@
         <v>78.325807999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>109</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="8">
         <v>403366</v>
@@ -2113,12 +2112,12 @@
         <v>85.55451699999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5">
         <v>163519</v>
@@ -2137,12 +2136,12 @@
         <v>88.48493599999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>31</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8">
         <v>132682</v>
@@ -2161,12 +2160,12 @@
         <v>90.862725999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>119</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
         <v>112122</v>
@@ -2185,12 +2184,12 @@
         <v>92.872061000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8">
         <v>97892</v>
@@ -2209,12 +2208,12 @@
         <v>94.626379999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5">
         <v>83112</v>
@@ -2233,12 +2232,12 @@
         <v>96.115826999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>74</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" s="8">
         <v>32117</v>
@@ -2257,12 +2256,12 @@
         <v>96.691395</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5">
         <v>20240</v>
@@ -2281,12 +2280,12 @@
         <v>97.054114999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>108</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" s="8">
         <v>19348</v>
@@ -2305,12 +2304,12 @@
         <v>97.400849999999991</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>98</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5">
         <v>17921</v>
@@ -2329,12 +2328,12 @@
         <v>97.722011999999992</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" s="8">
         <v>11777</v>
@@ -2353,12 +2352,12 @@
         <v>97.933066999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5">
         <v>11539</v>
@@ -2377,12 +2376,12 @@
         <v>98.139856999999992</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="8">
         <v>8197</v>
@@ -2401,12 +2400,12 @@
         <v>98.286754999999985</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>121</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5">
         <v>8181</v>
@@ -2425,12 +2424,12 @@
         <v>98.433365999999978</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>122</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" s="8">
         <v>6376</v>
@@ -2449,12 +2448,12 @@
         <v>98.547629999999984</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>30</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5">
         <v>5865</v>
@@ -2473,12 +2472,12 @@
         <v>98.65273599999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>116</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C21" s="8">
         <v>5737</v>
@@ -2497,12 +2496,12 @@
         <v>98.755548999999988</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>26</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5">
         <v>5108</v>
@@ -2521,12 +2520,12 @@
         <v>98.847088999999983</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C23" s="8">
         <v>4508</v>
@@ -2545,12 +2544,12 @@
         <v>98.927876999999981</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>75</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C24" s="5">
         <v>4102</v>
@@ -2569,12 +2568,12 @@
         <v>99.001388999999975</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>0</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C25" s="8">
         <v>3521</v>
@@ -2593,12 +2592,12 @@
         <v>99.06448899999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>40</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C26" s="5">
         <v>3470</v>
@@ -2617,12 +2616,12 @@
         <v>99.126674999999977</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>86</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C27" s="8">
         <v>2747</v>
@@ -2641,12 +2640,12 @@
         <v>99.175903999999974</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>55</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C28" s="5">
         <v>2717</v>
@@ -2665,12 +2664,12 @@
         <v>99.224594999999979</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>84</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C29" s="8">
         <v>2508</v>
@@ -2689,12 +2688,12 @@
         <v>99.269540999999975</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>44</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C30" s="5">
         <v>2231</v>
@@ -2713,12 +2712,12 @@
         <v>99.30952299999997</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>4</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C31" s="8">
         <v>2146</v>
@@ -2749,47 +2748,47 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="105.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
